--- a/PV_ICE/baselines/SupportingMaterial/CellTechCompare/PERCvSHJvTOPCon-LitData.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/CellTechCompare/PERCvSHJvTOPCon-LitData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\CellTechCompare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C5060-D134-416F-91DF-280B1102B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7EEA7-8094-454D-B9B4-B16BB95282E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{85F0D699-D82F-416D-B173-86122D0C563A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{85F0D699-D82F-416D-B173-86122D0C563A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -76,6 +77,21 @@
   </si>
   <si>
     <t>m2 cell area</t>
+  </si>
+  <si>
+    <t>Gervais et al</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>kg/MWp = mg/W</t>
+  </si>
+  <si>
+    <t>Ag g/m2</t>
+  </si>
+  <si>
+    <t>P=eff*A*Irrad</t>
   </si>
 </sst>
 </file>
@@ -493,7 +509,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1615,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF439B-CDD0-4172-BD6A-ADD077A27350}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,4 +1870,491 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D2BEA9-6600-4070-9B96-7BCF412C8B0A}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+      <c r="F2">
+        <v>3.48381477718101</v>
+      </c>
+      <c r="G2">
+        <v>7.9111627231818797</v>
+      </c>
+      <c r="H2">
+        <v>5.9152271737552597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="F3">
+        <v>3.34228480185803</v>
+      </c>
+      <c r="G3">
+        <v>7.4793148497604802</v>
+      </c>
+      <c r="H3">
+        <v>5.6684569603716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+      <c r="F4">
+        <v>3.2007548265350501</v>
+      </c>
+      <c r="G4">
+        <v>7.0474669763390896</v>
+      </c>
+      <c r="H4">
+        <v>5.4216867469879499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>3.0592248512120701</v>
+      </c>
+      <c r="G5">
+        <v>6.6156191029176901</v>
+      </c>
+      <c r="H5">
+        <v>5.1749165336042902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>2024</v>
+      </c>
+      <c r="F6">
+        <v>2.9176948758890902</v>
+      </c>
+      <c r="G6">
+        <v>6.1837712294962897</v>
+      </c>
+      <c r="H6">
+        <v>4.9281463202206401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2025</v>
+      </c>
+      <c r="F7">
+        <v>2.7761649005661102</v>
+      </c>
+      <c r="G7">
+        <v>5.7519233560748999</v>
+      </c>
+      <c r="H7">
+        <v>4.6813761068369804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>2026</v>
+      </c>
+      <c r="F8">
+        <v>2.63463492524314</v>
+      </c>
+      <c r="G8">
+        <v>5.3200754826535004</v>
+      </c>
+      <c r="H8">
+        <v>4.4346058934533303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>2027</v>
+      </c>
+      <c r="F9">
+        <v>2.4931049499201601</v>
+      </c>
+      <c r="G9">
+        <v>4.8882276092321</v>
+      </c>
+      <c r="H9">
+        <v>4.1878356800696697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>2028</v>
+      </c>
+      <c r="F10">
+        <v>2.3515749745971801</v>
+      </c>
+      <c r="G10">
+        <v>4.4563797358107102</v>
+      </c>
+      <c r="H10">
+        <v>3.9410654666860201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2029</v>
+      </c>
+      <c r="F11">
+        <v>2.2100449992742002</v>
+      </c>
+      <c r="G11">
+        <v>4.0245318623893098</v>
+      </c>
+      <c r="H11">
+        <v>3.6942952533023599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>2030</v>
+      </c>
+      <c r="F12">
+        <v>2.0685150239512202</v>
+      </c>
+      <c r="G12">
+        <v>3.5926839889679099</v>
+      </c>
+      <c r="H12">
+        <v>3.4475250399187098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>2031</v>
+      </c>
+      <c r="F13">
+        <v>2.0376687472782602</v>
+      </c>
+      <c r="G13">
+        <v>3.5582087385687302</v>
+      </c>
+      <c r="H13">
+        <v>3.4148642763826298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>2032</v>
+      </c>
+      <c r="F14">
+        <v>2.0068224706053099</v>
+      </c>
+      <c r="G14">
+        <v>3.5237334881695399</v>
+      </c>
+      <c r="H14">
+        <v>3.38220351284656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>2033</v>
+      </c>
+      <c r="F15">
+        <v>1.9759761939323499</v>
+      </c>
+      <c r="G15">
+        <v>3.48925823777035</v>
+      </c>
+      <c r="H15">
+        <v>3.3495427493104901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>2034</v>
+      </c>
+      <c r="F16">
+        <v>1.9451299172593901</v>
+      </c>
+      <c r="G16">
+        <v>3.45478298737117</v>
+      </c>
+      <c r="H16">
+        <v>3.3168819857744198</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>2035</v>
+      </c>
+      <c r="F17">
+        <v>1.9142836405864401</v>
+      </c>
+      <c r="G17">
+        <v>3.4203077369719801</v>
+      </c>
+      <c r="H17">
+        <v>3.28422122223835</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>2036</v>
+      </c>
+      <c r="F18">
+        <v>1.88343736391348</v>
+      </c>
+      <c r="G18">
+        <v>3.3858324865727898</v>
+      </c>
+      <c r="H18">
+        <v>3.25156045870227</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>2037</v>
+      </c>
+      <c r="F19">
+        <v>1.85259108724052</v>
+      </c>
+      <c r="G19">
+        <v>3.3513572361735999</v>
+      </c>
+      <c r="H19">
+        <v>3.2188996951662001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>2038</v>
+      </c>
+      <c r="F20">
+        <v>1.82174481056757</v>
+      </c>
+      <c r="G20">
+        <v>3.3168819857744198</v>
+      </c>
+      <c r="H20">
+        <v>3.1862389316301298</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>2039</v>
+      </c>
+      <c r="F21">
+        <v>1.79089853389461</v>
+      </c>
+      <c r="G21">
+        <v>3.28240673537523</v>
+      </c>
+      <c r="H21">
+        <v>3.15357816809406</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>2040</v>
+      </c>
+      <c r="F22">
+        <v>1.7600522572216499</v>
+      </c>
+      <c r="G22">
+        <v>3.2479314849760401</v>
+      </c>
+      <c r="H22">
+        <v>3.1209174045579902</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>2041</v>
+      </c>
+      <c r="F23">
+        <v>1.7292059805486999</v>
+      </c>
+      <c r="G23">
+        <v>3.21345623457686</v>
+      </c>
+      <c r="H23">
+        <v>3.0882566410219101</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>2042</v>
+      </c>
+      <c r="F24">
+        <v>1.6983597038757401</v>
+      </c>
+      <c r="G24">
+        <v>3.1789809841776702</v>
+      </c>
+      <c r="H24">
+        <v>3.0555958774858398</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>2043</v>
+      </c>
+      <c r="F25">
+        <v>1.6675134272027801</v>
+      </c>
+      <c r="G25">
+        <v>3.1445057337784799</v>
+      </c>
+      <c r="H25">
+        <v>3.02293511394977</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>2044</v>
+      </c>
+      <c r="F26">
+        <v>1.63666715052983</v>
+      </c>
+      <c r="G26">
+        <v>3.1100304833793002</v>
+      </c>
+      <c r="H26">
+        <v>2.9902743504137002</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>2045</v>
+      </c>
+      <c r="F27">
+        <v>1.60582087385687</v>
+      </c>
+      <c r="G27">
+        <v>3.0755552329801099</v>
+      </c>
+      <c r="H27">
+        <v>2.9576135868776299</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>2046</v>
+      </c>
+      <c r="F28">
+        <v>1.57497459718391</v>
+      </c>
+      <c r="G28">
+        <v>3.04107998258092</v>
+      </c>
+      <c r="H28">
+        <v>2.9249528233415498</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>2047</v>
+      </c>
+      <c r="F29">
+        <v>1.5441283205109499</v>
+      </c>
+      <c r="G29">
+        <v>3.0066047321817302</v>
+      </c>
+      <c r="H29">
+        <v>2.89229205980548</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>2048</v>
+      </c>
+      <c r="F30">
+        <v>1.5132820438379999</v>
+      </c>
+      <c r="G30">
+        <v>2.9721294817825501</v>
+      </c>
+      <c r="H30">
+        <v>2.8596312962694102</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>2049</v>
+      </c>
+      <c r="F31">
+        <v>1.4824357671650401</v>
+      </c>
+      <c r="G31">
+        <v>2.9376542313833598</v>
+      </c>
+      <c r="H31">
+        <v>2.8269705327333399</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>2050</v>
+      </c>
+      <c r="F32">
+        <v>1.4515894904920801</v>
+      </c>
+      <c r="G32">
+        <v>2.9031789809841699</v>
+      </c>
+      <c r="H32">
+        <v>2.79430976919727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>